--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I1_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r102_I1_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -592,10 +604,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K16" s="2" t="s">
+      <c r="J16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -639,28 +651,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="2">
+      <c r="A18" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D18" t="s" s="2">
+      <c r="C18" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D18" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -685,28 +697,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="2">
+      <c r="B20" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="2">
+      <c r="C20" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="2">
+      <c r="D20" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="2">
+      <c r="E20" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="2">
+      <c r="F20" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="G20" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="2">
+      <c r="H20" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="2">
+      <c r="I20" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -794,10 +806,10 @@
       <c r="I23">
         <f>((C23-C22)^2+(D23- D22)^2)^.5</f>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K23" s="2" t="s">
+      <c r="J23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L23" t="n">
@@ -841,28 +853,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s" s="2">
+      <c r="A25" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C25" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D25" t="s" s="2">
+      <c r="C25" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -887,28 +899,28 @@
       </c>
     </row>
     <row r="27">
-      <c r="B27" t="s" s="2">
+      <c r="B27" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C27" t="s" s="2">
+      <c r="C27" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D27" t="s" s="2">
+      <c r="D27" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E27" t="s" s="2">
+      <c r="E27" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="2">
+      <c r="F27" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G27" t="s" s="2">
+      <c r="G27" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H27" t="s" s="2">
+      <c r="H27" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I27" t="s" s="2">
+      <c r="I27" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1025,10 +1037,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K31" s="2" t="s">
+      <c r="J31" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1072,28 +1084,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="2">
+      <c r="A33" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D33" t="s" s="2">
+      <c r="C33" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D33" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="2">
+      <c r="E33" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="2">
+      <c r="F33" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="2">
+      <c r="G33" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="2">
+      <c r="H33" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1118,28 +1130,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="2">
+      <c r="C35" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="2">
+      <c r="D35" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="2">
+      <c r="I35" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1227,10 +1239,10 @@
       <c r="I38">
         <f>((C38-C37)^2+(D38- D37)^2)^.5</f>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K38" s="2" t="s">
+      <c r="J38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K38" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L38" t="n">
@@ -1274,28 +1286,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s" s="2">
+      <c r="A40" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C40" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D40" t="s" s="2">
+      <c r="C40" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D40" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1320,28 +1332,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C42" t="s" s="2">
+      <c r="C42" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D42" t="s" s="2">
+      <c r="D42" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I42" t="s" s="2">
+      <c r="I42" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1458,10 +1470,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1505,28 +1517,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1551,28 +1563,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1660,10 +1672,10 @@
       <c r="I53">
         <f>((C53-C52)^2+(D53- D52)^2)^.5</f>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K53" s="2" t="s">
+      <c r="J53" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K53" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L53" t="n">
@@ -1707,28 +1719,28 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="s" s="2">
+      <c r="A55" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C55" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D55" t="s" s="2">
+      <c r="C55" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D55" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E55" t="s" s="2">
+      <c r="E55" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F55" t="s" s="2">
+      <c r="F55" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G55" t="s" s="2">
+      <c r="G55" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H55" t="s" s="2">
+      <c r="H55" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1753,28 +1765,28 @@
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="s" s="2">
+      <c r="B57" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C57" t="s" s="2">
+      <c r="C57" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D57" t="s" s="2">
+      <c r="D57" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E57" t="s" s="2">
+      <c r="E57" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F57" t="s" s="2">
+      <c r="F57" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G57" t="s" s="2">
+      <c r="G57" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H57" t="s" s="2">
+      <c r="H57" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I57" t="s" s="2">
+      <c r="I57" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1891,10 +1903,10 @@
       <c r="I61">
         <f>((C61-C60)^2+(D61- D60)^2)^.5</f>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K61" s="2" t="s">
+      <c r="J61" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L61" t="n">
@@ -1938,28 +1950,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="s" s="2">
+      <c r="A63" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C63" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s" s="2">
+      <c r="C63" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D63" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E63" t="s" s="2">
+      <c r="E63" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F63" t="s" s="2">
+      <c r="F63" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G63" t="s" s="2">
+      <c r="G63" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H63" t="s" s="2">
+      <c r="H63" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1984,28 +1996,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I65" t="s" s="2">
+      <c r="I65" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2122,10 +2134,10 @@
       <c r="I69">
         <f>((C69-C68)^2+(D69- D68)^2)^.5</f>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K69" s="2" t="s">
+      <c r="J69" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K69" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L69" t="n">
@@ -2169,28 +2181,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="s" s="2">
+      <c r="A71" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s" s="2">
+      <c r="C71" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D71" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2215,28 +2227,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C73" t="s" s="2">
+      <c r="C73" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D73" t="s" s="2">
+      <c r="D73" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I73" t="s" s="2">
+      <c r="I73" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2382,10 +2394,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="2" t="s">
+      <c r="J78" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2429,28 +2441,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="2">
+      <c r="A80" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="2">
+      <c r="C80" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="2">
+      <c r="E80" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="2">
+      <c r="F80" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="2">
+      <c r="G80" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="2">
+      <c r="H80" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2475,28 +2487,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2584,10 +2596,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="2" t="s">
+      <c r="J85" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2631,28 +2643,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="2">
+      <c r="A87" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="2">
+      <c r="C87" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="2">
+      <c r="E87" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="2">
+      <c r="F87" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="2">
+      <c r="G87" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="2">
+      <c r="H87" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2677,28 +2689,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="2">
+      <c r="C89" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="2">
+      <c r="D89" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="2">
+      <c r="I89" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2786,10 +2798,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K92" s="2" t="s">
+      <c r="J92" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2833,28 +2845,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D94" t="s" s="2">
+      <c r="C94" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2879,28 +2891,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2988,10 +3000,10 @@
       <c r="I99">
         <f>((C99-C98)^2+(D99- D98)^2)^.5</f>
       </c>
-      <c r="J99" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K99" s="2" t="s">
+      <c r="J99" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L99" t="n">
@@ -3035,28 +3047,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="s" s="2">
+      <c r="A101" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C101" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D101" t="s" s="2">
+      <c r="C101" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D101" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E101" t="s" s="2">
+      <c r="E101" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F101" t="s" s="2">
+      <c r="F101" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G101" t="s" s="2">
+      <c r="G101" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H101" t="s" s="2">
+      <c r="H101" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3081,28 +3093,28 @@
       </c>
     </row>
     <row r="103">
-      <c r="B103" t="s" s="2">
+      <c r="B103" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C103" t="s" s="2">
+      <c r="C103" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D103" t="s" s="2">
+      <c r="D103" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E103" t="s" s="2">
+      <c r="E103" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F103" t="s" s="2">
+      <c r="F103" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G103" t="s" s="2">
+      <c r="G103" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H103" t="s" s="2">
+      <c r="H103" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I103" t="s" s="2">
+      <c r="I103" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3202,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3249,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3295,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3450,10 +3462,10 @@
       <c r="I115">
         <f>((C115-C114)^2+(D115- D114)^2)^.5</f>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="J115" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K115" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L115" t="n">
@@ -3497,28 +3509,28 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="s" s="2">
+      <c r="A117" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B117" t="s" s="2">
+      <c r="B117" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C117" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D117" t="s" s="2">
+      <c r="C117" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D117" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E117" t="s" s="2">
+      <c r="E117" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F117" t="s" s="2">
+      <c r="F117" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G117" t="s" s="2">
+      <c r="G117" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H117" t="s" s="2">
+      <c r="H117" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3543,28 +3555,28 @@
       </c>
     </row>
     <row r="119">
-      <c r="B119" t="s" s="2">
+      <c r="B119" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C119" t="s" s="2">
+      <c r="C119" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D119" t="s" s="2">
+      <c r="D119" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E119" t="s" s="2">
+      <c r="E119" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F119" t="s" s="2">
+      <c r="F119" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G119" t="s" s="2">
+      <c r="G119" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H119" t="s" s="2">
+      <c r="H119" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I119" t="s" s="2">
+      <c r="I119" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3681,10 +3693,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K123" s="2" t="s">
+      <c r="J123" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3728,28 +3740,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D125" t="s" s="2">
+      <c r="C125" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3774,28 +3786,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3912,10 +3924,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="J131" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3959,28 +3971,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D133" t="s" s="2">
+      <c r="C133" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4005,28 +4017,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4114,10 +4126,10 @@
       <c r="I138">
         <f>((C138-C137)^2+(D138- D137)^2)^.5</f>
       </c>
-      <c r="J138" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K138" s="2" t="s">
+      <c r="J138" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K138" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L138" t="n">
@@ -4161,28 +4173,28 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="s" s="2">
+      <c r="A140" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B140" t="s" s="2">
+      <c r="B140" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C140" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D140" t="s" s="2">
+      <c r="C140" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D140" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E140" t="s" s="2">
+      <c r="E140" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F140" t="s" s="2">
+      <c r="F140" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G140" t="s" s="2">
+      <c r="G140" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H140" t="s" s="2">
+      <c r="H140" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4207,28 +4219,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="B142" t="s" s="2">
+      <c r="B142" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C142" t="s" s="2">
+      <c r="C142" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D142" t="s" s="2">
+      <c r="D142" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E142" t="s" s="2">
+      <c r="E142" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F142" t="s" s="2">
+      <c r="F142" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G142" t="s" s="2">
+      <c r="G142" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H142" t="s" s="2">
+      <c r="H142" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I142" t="s" s="2">
+      <c r="I142" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4316,10 +4328,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K145" s="2" t="s">
+      <c r="J145" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4363,28 +4375,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D147" t="s" s="2">
+      <c r="C147" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4409,28 +4421,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4518,10 +4530,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="2" t="s">
+      <c r="J152" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4565,28 +4577,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="2">
+      <c r="C154" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4611,28 +4623,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4749,10 +4761,10 @@
       <c r="I160">
         <f>((C160-C159)^2+(D160- D159)^2)^.5</f>
       </c>
-      <c r="J160" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K160" s="2" t="s">
+      <c r="J160" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K160" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L160" t="n">
@@ -4796,28 +4808,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="s" s="2">
+      <c r="A162" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B162" t="s" s="2">
+      <c r="B162" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C162" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D162" t="s" s="2">
+      <c r="C162" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D162" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E162" t="s" s="2">
+      <c r="E162" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F162" t="s" s="2">
+      <c r="F162" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G162" t="s" s="2">
+      <c r="G162" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H162" t="s" s="2">
+      <c r="H162" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4842,28 +4854,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I164" t="s" s="2">
+      <c r="I164" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4922,10 +4934,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="2" t="s">
+      <c r="J166" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4969,28 +4981,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="2">
+      <c r="A168" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="2">
+      <c r="B168" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="2">
+      <c r="C168" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="2">
+      <c r="E168" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="2">
+      <c r="F168" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="2">
+      <c r="G168" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="2">
+      <c r="H168" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5015,28 +5027,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="2">
+      <c r="B170" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="2">
+      <c r="C170" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="2">
+      <c r="D170" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="2">
+      <c r="E170" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="2">
+      <c r="F170" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="2">
+      <c r="G170" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="2">
+      <c r="H170" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="2">
+      <c r="I170" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5095,10 +5107,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="2" t="s">
+      <c r="J172" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5142,28 +5154,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="2">
+      <c r="A174" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="2">
+      <c r="B174" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="2">
+      <c r="C174" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="2">
+      <c r="E174" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="2">
+      <c r="F174" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="2">
+      <c r="G174" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="2">
+      <c r="H174" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5188,28 +5200,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="2">
+      <c r="B176" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="2">
+      <c r="C176" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="2">
+      <c r="D176" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="2">
+      <c r="E176" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="2">
+      <c r="F176" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="2">
+      <c r="G176" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="2">
+      <c r="H176" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="2">
+      <c r="I176" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5268,10 +5280,10 @@
       <c r="I178">
         <f>((C178-C177)^2+(D178- D177)^2)^.5</f>
       </c>
-      <c r="J178" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K178" s="2" t="s">
+      <c r="J178" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K178" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L178" t="n">
@@ -5315,28 +5327,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="s" s="2">
+      <c r="A180" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C180" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D180" t="s" s="2">
+      <c r="C180" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D180" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5361,28 +5373,28 @@
       </c>
     </row>
     <row r="182">
-      <c r="B182" t="s" s="2">
+      <c r="B182" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C182" t="s" s="2">
+      <c r="C182" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D182" t="s" s="2">
+      <c r="D182" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E182" t="s" s="2">
+      <c r="E182" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F182" t="s" s="2">
+      <c r="F182" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G182" t="s" s="2">
+      <c r="G182" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H182" t="s" s="2">
+      <c r="H182" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I182" t="s" s="2">
+      <c r="I182" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5441,10 +5453,10 @@
       <c r="I184">
         <f>((C184-C183)^2+(D184- D183)^2)^.5</f>
       </c>
-      <c r="J184" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K184" s="2" t="s">
+      <c r="J184" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K184" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L184" t="n">
@@ -5488,28 +5500,28 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="s" s="2">
+      <c r="A186" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B186" t="s" s="2">
+      <c r="B186" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C186" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D186" t="s" s="2">
+      <c r="C186" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D186" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E186" t="s" s="2">
+      <c r="E186" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F186" t="s" s="2">
+      <c r="F186" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G186" t="s" s="2">
+      <c r="G186" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H186" t="s" s="2">
+      <c r="H186" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5534,28 +5546,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="B188" t="s" s="2">
+      <c r="B188" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C188" t="s" s="2">
+      <c r="C188" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D188" t="s" s="2">
+      <c r="D188" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E188" t="s" s="2">
+      <c r="E188" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F188" t="s" s="2">
+      <c r="F188" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G188" t="s" s="2">
+      <c r="G188" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H188" t="s" s="2">
+      <c r="H188" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I188" t="s" s="2">
+      <c r="I188" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5643,10 +5655,10 @@
       <c r="I191">
         <f>((C191-C190)^2+(D191- D190)^2)^.5</f>
       </c>
-      <c r="J191" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K191" s="2" t="s">
+      <c r="J191" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K191" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L191" t="n">
@@ -5690,28 +5702,28 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="s" s="2">
+      <c r="A193" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B193" t="s" s="2">
+      <c r="B193" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C193" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D193" t="s" s="2">
+      <c r="C193" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D193" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E193" t="s" s="2">
+      <c r="E193" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F193" t="s" s="2">
+      <c r="F193" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G193" t="s" s="2">
+      <c r="G193" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H193" t="s" s="2">
+      <c r="H193" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5736,28 +5748,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C195" t="s" s="2">
+      <c r="C195" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D195" t="s" s="2">
+      <c r="D195" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I195" t="s" s="2">
+      <c r="I195" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5816,10 +5828,10 @@
       <c r="I197">
         <f>((C197-C196)^2+(D197- D196)^2)^.5</f>
       </c>
-      <c r="J197" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K197" s="2" t="s">
+      <c r="J197" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K197" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L197" t="n">
@@ -5863,28 +5875,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="s" s="2">
+      <c r="A199" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C199" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D199" t="s" s="2">
+      <c r="C199" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D199" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5909,28 +5921,28 @@
       </c>
     </row>
     <row r="201">
-      <c r="B201" t="s" s="2">
+      <c r="B201" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C201" t="s" s="2">
+      <c r="C201" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D201" t="s" s="2">
+      <c r="D201" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E201" t="s" s="2">
+      <c r="E201" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F201" t="s" s="2">
+      <c r="F201" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G201" t="s" s="2">
+      <c r="G201" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H201" t="s" s="2">
+      <c r="H201" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I201" t="s" s="2">
+      <c r="I201" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5989,10 +6001,10 @@
       <c r="I203">
         <f>((C203-C202)^2+(D203- D202)^2)^.5</f>
       </c>
-      <c r="J203" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K203" s="2" t="s">
+      <c r="J203" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K203" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L203" t="n">
@@ -6036,28 +6048,28 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="s" s="2">
+      <c r="A205" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B205" t="s" s="2">
+      <c r="B205" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C205" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D205" t="s" s="2">
+      <c r="C205" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D205" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E205" t="s" s="2">
+      <c r="E205" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F205" t="s" s="2">
+      <c r="F205" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G205" t="s" s="2">
+      <c r="G205" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H205" t="s" s="2">
+      <c r="H205" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6082,28 +6094,28 @@
       </c>
     </row>
     <row r="207">
-      <c r="B207" t="s" s="2">
+      <c r="B207" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C207" t="s" s="2">
+      <c r="C207" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D207" t="s" s="2">
+      <c r="D207" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E207" t="s" s="2">
+      <c r="E207" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F207" t="s" s="2">
+      <c r="F207" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G207" t="s" s="2">
+      <c r="G207" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H207" t="s" s="2">
+      <c r="H207" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I207" t="s" s="2">
+      <c r="I207" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6220,10 +6232,10 @@
       <c r="I211">
         <f>((C211-C210)^2+(D211- D210)^2)^.5</f>
       </c>
-      <c r="J211" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K211" s="2" t="s">
+      <c r="J211" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K211" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L211" t="n">
@@ -6267,28 +6279,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="s" s="2">
+      <c r="A213" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C213" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D213" t="s" s="2">
+      <c r="C213" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D213" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6313,28 +6325,28 @@
       </c>
     </row>
     <row r="215">
-      <c r="B215" t="s" s="2">
+      <c r="B215" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C215" t="s" s="2">
+      <c r="C215" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D215" t="s" s="2">
+      <c r="D215" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E215" t="s" s="2">
+      <c r="E215" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F215" t="s" s="2">
+      <c r="F215" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G215" t="s" s="2">
+      <c r="G215" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H215" t="s" s="2">
+      <c r="H215" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I215" t="s" s="2">
+      <c r="I215" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6451,10 +6463,10 @@
       <c r="I219">
         <f>((C219-C218)^2+(D219- D218)^2)^.5</f>
       </c>
-      <c r="J219" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K219" s="2" t="s">
+      <c r="J219" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K219" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L219" t="n">
@@ -6498,28 +6510,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="s" s="2">
+      <c r="A221" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B221" t="s" s="2">
+      <c r="B221" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C221" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D221" t="s" s="2">
+      <c r="C221" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D221" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E221" t="s" s="2">
+      <c r="E221" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F221" t="s" s="2">
+      <c r="F221" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G221" t="s" s="2">
+      <c r="G221" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H221" t="s" s="2">
+      <c r="H221" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6544,28 +6556,28 @@
       </c>
     </row>
     <row r="223">
-      <c r="B223" t="s" s="2">
+      <c r="B223" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C223" t="s" s="2">
+      <c r="C223" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D223" t="s" s="2">
+      <c r="D223" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E223" t="s" s="2">
+      <c r="E223" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F223" t="s" s="2">
+      <c r="F223" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G223" t="s" s="2">
+      <c r="G223" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H223" t="s" s="2">
+      <c r="H223" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I223" t="s" s="2">
+      <c r="I223" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6682,10 +6694,10 @@
       <c r="I227">
         <f>((C227-C226)^2+(D227- D226)^2)^.5</f>
       </c>
-      <c r="J227" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K227" s="2" t="s">
+      <c r="J227" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K227" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L227" t="n">
@@ -6729,28 +6741,28 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="s" s="2">
+      <c r="A229" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B229" t="s" s="2">
+      <c r="B229" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C229" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D229" t="s" s="2">
+      <c r="C229" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D229" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E229" t="s" s="2">
+      <c r="E229" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F229" t="s" s="2">
+      <c r="F229" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G229" t="s" s="2">
+      <c r="G229" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H229" t="s" s="2">
+      <c r="H229" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6775,28 +6787,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="B231" t="s" s="2">
+      <c r="B231" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C231" t="s" s="2">
+      <c r="C231" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D231" t="s" s="2">
+      <c r="D231" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E231" t="s" s="2">
+      <c r="E231" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F231" t="s" s="2">
+      <c r="F231" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G231" t="s" s="2">
+      <c r="G231" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H231" t="s" s="2">
+      <c r="H231" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I231" t="s" s="2">
+      <c r="I231" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6884,10 +6896,10 @@
       <c r="I234">
         <f>((C234-C233)^2+(D234- D233)^2)^.5</f>
       </c>
-      <c r="J234" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K234" s="2" t="s">
+      <c r="J234" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K234" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L234" t="n">
@@ -6931,28 +6943,28 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="s" s="2">
+      <c r="A236" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B236" t="s" s="2">
+      <c r="B236" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C236" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D236" t="s" s="2">
+      <c r="C236" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D236" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E236" t="s" s="2">
+      <c r="E236" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F236" t="s" s="2">
+      <c r="F236" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G236" t="s" s="2">
+      <c r="G236" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H236" t="s" s="2">
+      <c r="H236" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6977,28 +6989,28 @@
       </c>
     </row>
     <row r="238">
-      <c r="B238" t="s" s="2">
+      <c r="B238" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C238" t="s" s="2">
+      <c r="C238" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D238" t="s" s="2">
+      <c r="D238" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E238" t="s" s="2">
+      <c r="E238" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F238" t="s" s="2">
+      <c r="F238" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G238" t="s" s="2">
+      <c r="G238" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H238" t="s" s="2">
+      <c r="H238" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I238" t="s" s="2">
+      <c r="I238" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7086,10 +7098,10 @@
       <c r="I241">
         <f>((C241-C240)^2+(D241- D240)^2)^.5</f>
       </c>
-      <c r="J241" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K241" s="2" t="s">
+      <c r="J241" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K241" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L241" t="n">
@@ -7133,28 +7145,28 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="s" s="2">
+      <c r="A243" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B243" t="s" s="2">
+      <c r="B243" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C243" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D243" t="s" s="2">
+      <c r="C243" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D243" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E243" t="s" s="2">
+      <c r="E243" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F243" t="s" s="2">
+      <c r="F243" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G243" t="s" s="2">
+      <c r="G243" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H243" t="s" s="2">
+      <c r="H243" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7179,28 +7191,28 @@
       </c>
     </row>
     <row r="245">
-      <c r="B245" t="s" s="2">
+      <c r="B245" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C245" t="s" s="2">
+      <c r="C245" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D245" t="s" s="2">
+      <c r="D245" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E245" t="s" s="2">
+      <c r="E245" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F245" t="s" s="2">
+      <c r="F245" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G245" t="s" s="2">
+      <c r="G245" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H245" t="s" s="2">
+      <c r="H245" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I245" t="s" s="2">
+      <c r="I245" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7259,10 +7271,10 @@
       <c r="I247">
         <f>((C247-C246)^2+(D247- D246)^2)^.5</f>
       </c>
-      <c r="J247" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K247" s="2" t="s">
+      <c r="J247" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K247" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L247" t="n">
@@ -7306,28 +7318,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="s" s="2">
+      <c r="A249" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B249" t="s" s="2">
+      <c r="B249" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C249" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D249" t="s" s="2">
+      <c r="C249" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D249" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E249" t="s" s="2">
+      <c r="E249" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F249" t="s" s="2">
+      <c r="F249" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G249" t="s" s="2">
+      <c r="G249" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H249" t="s" s="2">
+      <c r="H249" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7352,28 +7364,28 @@
       </c>
     </row>
     <row r="251">
-      <c r="B251" t="s" s="2">
+      <c r="B251" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C251" t="s" s="2">
+      <c r="C251" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D251" t="s" s="2">
+      <c r="D251" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E251" t="s" s="2">
+      <c r="E251" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F251" t="s" s="2">
+      <c r="F251" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G251" t="s" s="2">
+      <c r="G251" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H251" t="s" s="2">
+      <c r="H251" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I251" t="s" s="2">
+      <c r="I251" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7461,10 +7473,10 @@
       <c r="I254">
         <f>((C254-C253)^2+(D254- D253)^2)^.5</f>
       </c>
-      <c r="J254" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K254" s="2" t="s">
+      <c r="J254" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K254" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L254" t="n">
@@ -7508,28 +7520,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" t="s" s="2">
+      <c r="A256" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B256" t="s" s="2">
+      <c r="B256" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C256" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D256" t="s" s="2">
+      <c r="C256" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D256" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E256" t="s" s="2">
+      <c r="E256" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F256" t="s" s="2">
+      <c r="F256" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G256" t="s" s="2">
+      <c r="G256" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H256" t="s" s="2">
+      <c r="H256" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7554,28 +7566,28 @@
       </c>
     </row>
     <row r="258">
-      <c r="B258" t="s" s="2">
+      <c r="B258" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C258" t="s" s="2">
+      <c r="C258" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D258" t="s" s="2">
+      <c r="D258" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E258" t="s" s="2">
+      <c r="E258" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F258" t="s" s="2">
+      <c r="F258" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G258" t="s" s="2">
+      <c r="G258" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H258" t="s" s="2">
+      <c r="H258" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I258" t="s" s="2">
+      <c r="I258" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7634,10 +7646,10 @@
       <c r="I260">
         <f>((C260-C259)^2+(D260- D259)^2)^.5</f>
       </c>
-      <c r="J260" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K260" s="2" t="s">
+      <c r="J260" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K260" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L260" t="n">
@@ -7681,28 +7693,28 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" t="s" s="2">
+      <c r="A262" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B262" t="s" s="2">
+      <c r="B262" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C262" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D262" t="s" s="2">
+      <c r="C262" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D262" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E262" t="s" s="2">
+      <c r="E262" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F262" t="s" s="2">
+      <c r="F262" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G262" t="s" s="2">
+      <c r="G262" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H262" t="s" s="2">
+      <c r="H262" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7727,28 +7739,28 @@
       </c>
     </row>
     <row r="264">
-      <c r="B264" t="s" s="2">
+      <c r="B264" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C264" t="s" s="2">
+      <c r="C264" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D264" t="s" s="2">
+      <c r="D264" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E264" t="s" s="2">
+      <c r="E264" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F264" t="s" s="2">
+      <c r="F264" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G264" t="s" s="2">
+      <c r="G264" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H264" t="s" s="2">
+      <c r="H264" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I264" t="s" s="2">
+      <c r="I264" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7836,10 +7848,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7883,28 +7895,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7929,28 +7941,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8009,10 +8021,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8056,28 +8068,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8102,28 +8114,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8211,10 +8223,10 @@
       <c r="I280">
         <f>((C280-C279)^2+(D280- D279)^2)^.5</f>
       </c>
-      <c r="J280" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K280" s="2" t="s">
+      <c r="J280" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K280" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L280" t="n">
@@ -8258,28 +8270,28 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" t="s" s="2">
+      <c r="A282" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B282" t="s" s="2">
+      <c r="B282" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C282" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D282" t="s" s="2">
+      <c r="C282" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D282" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E282" t="s" s="2">
+      <c r="E282" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F282" t="s" s="2">
+      <c r="F282" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G282" t="s" s="2">
+      <c r="G282" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H282" t="s" s="2">
+      <c r="H282" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8304,28 +8316,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C284" t="s" s="2">
+      <c r="C284" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D284" t="s" s="2">
+      <c r="D284" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I284" t="s" s="2">
+      <c r="I284" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8384,10 +8396,10 @@
       <c r="I286">
         <f>((C286-C285)^2+(D286- D285)^2)^.5</f>
       </c>
-      <c r="J286" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K286" s="2" t="s">
+      <c r="J286" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K286" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L286" t="n">
@@ -8431,28 +8443,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" t="s" s="2">
+      <c r="A288" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C288" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D288" t="s" s="2">
+      <c r="C288" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D288" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8477,28 +8489,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="B290" t="s" s="2">
+      <c r="B290" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C290" t="s" s="2">
+      <c r="C290" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D290" t="s" s="2">
+      <c r="D290" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E290" t="s" s="2">
+      <c r="E290" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F290" t="s" s="2">
+      <c r="F290" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G290" t="s" s="2">
+      <c r="G290" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H290" t="s" s="2">
+      <c r="H290" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I290" t="s" s="2">
+      <c r="I290" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8557,10 +8569,10 @@
       <c r="I292">
         <f>((C292-C291)^2+(D292- D291)^2)^.5</f>
       </c>
-      <c r="J292" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K292" s="2" t="s">
+      <c r="J292" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K292" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L292" t="n">
@@ -8604,28 +8616,28 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" t="s" s="2">
+      <c r="A294" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B294" t="s" s="2">
+      <c r="B294" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C294" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D294" t="s" s="2">
+      <c r="C294" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D294" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E294" t="s" s="2">
+      <c r="E294" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F294" t="s" s="2">
+      <c r="F294" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G294" t="s" s="2">
+      <c r="G294" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H294" t="s" s="2">
+      <c r="H294" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8650,28 +8662,28 @@
       </c>
     </row>
     <row r="296">
-      <c r="B296" t="s" s="2">
+      <c r="B296" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C296" t="s" s="2">
+      <c r="C296" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D296" t="s" s="2">
+      <c r="D296" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E296" t="s" s="2">
+      <c r="E296" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F296" t="s" s="2">
+      <c r="F296" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G296" t="s" s="2">
+      <c r="G296" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H296" t="s" s="2">
+      <c r="H296" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I296" t="s" s="2">
+      <c r="I296" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8730,10 +8742,10 @@
       <c r="I298">
         <f>((C298-C297)^2+(D298- D297)^2)^.5</f>
       </c>
-      <c r="J298" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K298" s="2" t="s">
+      <c r="J298" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K298" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L298" t="n">
@@ -8777,28 +8789,28 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" t="s" s="2">
+      <c r="A300" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B300" t="s" s="2">
+      <c r="B300" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C300" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D300" t="s" s="2">
+      <c r="C300" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D300" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E300" t="s" s="2">
+      <c r="E300" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F300" t="s" s="2">
+      <c r="F300" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G300" t="s" s="2">
+      <c r="G300" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H300" t="s" s="2">
+      <c r="H300" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8823,28 +8835,28 @@
       </c>
     </row>
     <row r="302">
-      <c r="B302" t="s" s="2">
+      <c r="B302" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C302" t="s" s="2">
+      <c r="C302" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D302" t="s" s="2">
+      <c r="D302" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E302" t="s" s="2">
+      <c r="E302" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F302" t="s" s="2">
+      <c r="F302" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G302" t="s" s="2">
+      <c r="G302" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H302" t="s" s="2">
+      <c r="H302" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I302" t="s" s="2">
+      <c r="I302" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8903,10 +8915,10 @@
       <c r="I304">
         <f>((C304-C303)^2+(D304- D303)^2)^.5</f>
       </c>
-      <c r="J304" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K304" s="2" t="s">
+      <c r="J304" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K304" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L304" t="n">
@@ -8950,28 +8962,28 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" t="s" s="2">
+      <c r="A306" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B306" t="s" s="2">
+      <c r="B306" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C306" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D306" t="s" s="2">
+      <c r="C306" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D306" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E306" t="s" s="2">
+      <c r="E306" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F306" t="s" s="2">
+      <c r="F306" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G306" t="s" s="2">
+      <c r="G306" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H306" t="s" s="2">
+      <c r="H306" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8996,28 +9008,28 @@
       </c>
     </row>
     <row r="308">
-      <c r="B308" t="s" s="2">
+      <c r="B308" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C308" t="s" s="2">
+      <c r="C308" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D308" t="s" s="2">
+      <c r="D308" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E308" t="s" s="2">
+      <c r="E308" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F308" t="s" s="2">
+      <c r="F308" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G308" t="s" s="2">
+      <c r="G308" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H308" t="s" s="2">
+      <c r="H308" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I308" t="s" s="2">
+      <c r="I308" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9076,10 +9088,10 @@
       <c r="I310">
         <f>((C310-C309)^2+(D310- D309)^2)^.5</f>
       </c>
-      <c r="J310" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K310" s="2" t="s">
+      <c r="J310" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K310" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L310" t="n">
@@ -9123,28 +9135,28 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" t="s" s="2">
+      <c r="A312" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B312" t="s" s="2">
+      <c r="B312" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C312" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D312" t="s" s="2">
+      <c r="C312" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D312" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E312" t="s" s="2">
+      <c r="E312" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F312" t="s" s="2">
+      <c r="F312" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G312" t="s" s="2">
+      <c r="G312" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H312" t="s" s="2">
+      <c r="H312" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9169,28 +9181,28 @@
       </c>
     </row>
     <row r="314">
-      <c r="B314" t="s" s="2">
+      <c r="B314" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C314" t="s" s="2">
+      <c r="C314" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D314" t="s" s="2">
+      <c r="D314" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E314" t="s" s="2">
+      <c r="E314" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F314" t="s" s="2">
+      <c r="F314" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G314" t="s" s="2">
+      <c r="G314" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H314" t="s" s="2">
+      <c r="H314" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I314" t="s" s="2">
+      <c r="I314" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9249,10 +9261,10 @@
       <c r="I316">
         <f>((C316-C315)^2+(D316- D315)^2)^.5</f>
       </c>
-      <c r="J316" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K316" s="2" t="s">
+      <c r="J316" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K316" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L316" t="n">
@@ -9296,28 +9308,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" t="s" s="2">
+      <c r="A318" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B318" t="s" s="2">
+      <c r="B318" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C318" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D318" t="s" s="2">
+      <c r="C318" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D318" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E318" t="s" s="2">
+      <c r="E318" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F318" t="s" s="2">
+      <c r="F318" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G318" t="s" s="2">
+      <c r="G318" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H318" t="s" s="2">
+      <c r="H318" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9342,28 +9354,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="B320" t="s" s="2">
+      <c r="B320" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C320" t="s" s="2">
+      <c r="C320" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D320" t="s" s="2">
+      <c r="D320" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E320" t="s" s="2">
+      <c r="E320" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F320" t="s" s="2">
+      <c r="F320" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G320" t="s" s="2">
+      <c r="G320" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H320" t="s" s="2">
+      <c r="H320" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I320" t="s" s="2">
+      <c r="I320" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9422,10 +9434,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="2" t="s">
+      <c r="J322" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9469,28 +9481,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="2">
+      <c r="A324" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="2">
+      <c r="B324" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="2">
+      <c r="C324" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="2">
+      <c r="E324" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="2">
+      <c r="F324" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="2">
+      <c r="G324" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="2">
+      <c r="H324" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9515,28 +9527,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="2">
+      <c r="B326" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="2">
+      <c r="C326" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="2">
+      <c r="D326" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="2">
+      <c r="E326" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="2">
+      <c r="F326" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="2">
+      <c r="G326" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="2">
+      <c r="H326" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="2">
+      <c r="I326" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9624,10 +9636,10 @@
       <c r="I329">
         <f>((C329-C328)^2+(D329- D328)^2)^.5</f>
       </c>
-      <c r="J329" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K329" s="2" t="s">
+      <c r="J329" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K329" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L329" t="n">
@@ -9671,28 +9683,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" t="s" s="2">
+      <c r="A331" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B331" t="s" s="2">
+      <c r="B331" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C331" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D331" t="s" s="2">
+      <c r="C331" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D331" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E331" t="s" s="2">
+      <c r="E331" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F331" t="s" s="2">
+      <c r="F331" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G331" t="s" s="2">
+      <c r="G331" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H331" t="s" s="2">
+      <c r="H331" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9717,28 +9729,28 @@
       </c>
     </row>
     <row r="333">
-      <c r="B333" t="s" s="2">
+      <c r="B333" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C333" t="s" s="2">
+      <c r="C333" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D333" t="s" s="2">
+      <c r="D333" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E333" t="s" s="2">
+      <c r="E333" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F333" t="s" s="2">
+      <c r="F333" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G333" t="s" s="2">
+      <c r="G333" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H333" t="s" s="2">
+      <c r="H333" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I333" t="s" s="2">
+      <c r="I333" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9797,10 +9809,10 @@
       <c r="I335">
         <f>((C335-C334)^2+(D335- D334)^2)^.5</f>
       </c>
-      <c r="J335" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K335" s="2" t="s">
+      <c r="J335" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K335" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L335" t="n">
@@ -9844,28 +9856,28 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" t="s" s="2">
+      <c r="A337" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B337" t="s" s="2">
+      <c r="B337" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C337" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D337" t="s" s="2">
+      <c r="C337" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D337" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E337" t="s" s="2">
+      <c r="E337" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F337" t="s" s="2">
+      <c r="F337" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G337" t="s" s="2">
+      <c r="G337" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H337" t="s" s="2">
+      <c r="H337" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -9890,28 +9902,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="B339" t="s" s="2">
+      <c r="B339" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C339" t="s" s="2">
+      <c r="C339" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D339" t="s" s="2">
+      <c r="D339" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E339" t="s" s="2">
+      <c r="E339" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F339" t="s" s="2">
+      <c r="F339" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G339" t="s" s="2">
+      <c r="G339" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H339" t="s" s="2">
+      <c r="H339" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I339" t="s" s="2">
+      <c r="I339" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -9970,10 +9982,10 @@
       <c r="I341">
         <f>((C341-C340)^2+(D341- D340)^2)^.5</f>
       </c>
-      <c r="J341" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K341" s="2" t="s">
+      <c r="J341" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K341" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L341" t="n">
@@ -10017,28 +10029,28 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="s" s="2">
+      <c r="A343" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B343" t="s" s="2">
+      <c r="B343" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C343" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D343" t="s" s="2">
+      <c r="C343" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D343" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E343" t="s" s="2">
+      <c r="E343" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F343" t="s" s="2">
+      <c r="F343" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G343" t="s" s="2">
+      <c r="G343" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H343" t="s" s="2">
+      <c r="H343" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10063,28 +10075,28 @@
       </c>
     </row>
     <row r="345">
-      <c r="B345" t="s" s="2">
+      <c r="B345" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C345" t="s" s="2">
+      <c r="C345" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D345" t="s" s="2">
+      <c r="D345" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E345" t="s" s="2">
+      <c r="E345" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F345" t="s" s="2">
+      <c r="F345" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G345" t="s" s="2">
+      <c r="G345" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H345" t="s" s="2">
+      <c r="H345" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I345" t="s" s="2">
+      <c r="I345" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10143,10 +10155,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="2" t="s">
+      <c r="J347" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10190,28 +10202,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="2">
+      <c r="A349" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="2">
+      <c r="B349" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="2">
+      <c r="C349" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="2">
+      <c r="E349" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="2">
+      <c r="F349" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="2">
+      <c r="G349" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="2">
+      <c r="H349" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10236,28 +10248,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="2">
+      <c r="B351" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="2">
+      <c r="C351" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="2">
+      <c r="D351" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="2">
+      <c r="E351" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="2">
+      <c r="F351" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="2">
+      <c r="G351" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="2">
+      <c r="H351" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="2">
+      <c r="I351" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10316,10 +10328,10 @@
       <c r="I353">
         <f>((C353-C352)^2+(D353- D352)^2)^.5</f>
       </c>
-      <c r="J353" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K353" s="2" t="s">
+      <c r="J353" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K353" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L353" t="n">
@@ -10363,28 +10375,28 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" t="s" s="2">
+      <c r="A355" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B355" t="s" s="2">
+      <c r="B355" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C355" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D355" t="s" s="2">
+      <c r="C355" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D355" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E355" t="s" s="2">
+      <c r="E355" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F355" t="s" s="2">
+      <c r="F355" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G355" t="s" s="2">
+      <c r="G355" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H355" t="s" s="2">
+      <c r="H355" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10409,28 +10421,28 @@
       </c>
     </row>
     <row r="357">
-      <c r="B357" t="s" s="2">
+      <c r="B357" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C357" t="s" s="2">
+      <c r="C357" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D357" t="s" s="2">
+      <c r="D357" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E357" t="s" s="2">
+      <c r="E357" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F357" t="s" s="2">
+      <c r="F357" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G357" t="s" s="2">
+      <c r="G357" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H357" t="s" s="2">
+      <c r="H357" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I357" t="s" s="2">
+      <c r="I357" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10489,10 +10501,10 @@
       <c r="I359">
         <f>((C359-C358)^2+(D359- D358)^2)^.5</f>
       </c>
-      <c r="J359" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K359" s="2" t="s">
+      <c r="J359" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K359" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L359" t="n">
@@ -10536,28 +10548,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" t="s" s="2">
+      <c r="A361" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B361" t="s" s="2">
+      <c r="B361" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C361" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D361" t="s" s="2">
+      <c r="C361" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D361" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E361" t="s" s="2">
+      <c r="E361" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F361" t="s" s="2">
+      <c r="F361" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G361" t="s" s="2">
+      <c r="G361" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H361" t="s" s="2">
+      <c r="H361" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10582,28 +10594,28 @@
       </c>
     </row>
     <row r="363">
-      <c r="B363" t="s" s="2">
+      <c r="B363" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C363" t="s" s="2">
+      <c r="C363" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D363" t="s" s="2">
+      <c r="D363" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E363" t="s" s="2">
+      <c r="E363" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F363" t="s" s="2">
+      <c r="F363" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G363" t="s" s="2">
+      <c r="G363" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H363" t="s" s="2">
+      <c r="H363" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I363" t="s" s="2">
+      <c r="I363" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10662,10 +10674,10 @@
       <c r="I365">
         <f>((C365-C364)^2+(D365- D364)^2)^.5</f>
       </c>
-      <c r="J365" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K365" s="2" t="s">
+      <c r="J365" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K365" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L365" t="n">
@@ -10709,28 +10721,28 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" t="s" s="2">
+      <c r="A367" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B367" t="s" s="2">
+      <c r="B367" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C367" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D367" t="s" s="2">
+      <c r="C367" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D367" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E367" t="s" s="2">
+      <c r="E367" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F367" t="s" s="2">
+      <c r="F367" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G367" t="s" s="2">
+      <c r="G367" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H367" t="s" s="2">
+      <c r="H367" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -10755,28 +10767,28 @@
       </c>
     </row>
     <row r="369">
-      <c r="B369" t="s" s="2">
+      <c r="B369" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C369" t="s" s="2">
+      <c r="C369" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D369" t="s" s="2">
+      <c r="D369" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E369" t="s" s="2">
+      <c r="E369" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F369" t="s" s="2">
+      <c r="F369" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G369" t="s" s="2">
+      <c r="G369" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H369" t="s" s="2">
+      <c r="H369" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I369" t="s" s="2">
+      <c r="I369" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -10835,10 +10847,10 @@
       <c r="I371">
         <f>((C371-C370)^2+(D371- D370)^2)^.5</f>
       </c>
-      <c r="J371" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K371" s="2" t="s">
+      <c r="J371" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K371" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L371" t="n">
